--- a/Altium_Designer/Output/ECE453-S22.xlsx
+++ b/Altium_Designer/Output/ECE453-S22.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stepa\ECE453\Altium_Designer\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B447649-DFD5-41DE-8528-D52E8D4C6B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25F899C2-994B-4F00-B2BA-66F3813A7C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{49936BA3-A2E2-4B37-9DD2-0256EBA0A43C}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{D151D335-5463-4D8A-B2DE-3F0C689A84E9}"/>
   </bookViews>
   <sheets>
     <sheet name="ECE453-S22" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="114">
   <si>
     <t>Line #</t>
   </si>
@@ -91,6 +91,9 @@
     <t>KEMET</t>
   </si>
   <si>
+    <t>Unknown</t>
+  </si>
+  <si>
     <t>Mouser</t>
   </si>
   <si>
@@ -148,6 +151,27 @@
     <t>641-1329-1-ND</t>
   </si>
   <si>
+    <t>598-8220-107F</t>
+  </si>
+  <si>
+    <t>Red 625nm LED Indication - Discrete 2V 1206 _3216 Metric_</t>
+  </si>
+  <si>
+    <t>D200</t>
+  </si>
+  <si>
+    <t>Dialight</t>
+  </si>
+  <si>
+    <t>598-8220-102F</t>
+  </si>
+  <si>
+    <t>Newark</t>
+  </si>
+  <si>
+    <t>87M9451</t>
+  </si>
+  <si>
     <t>MC78L05ACHT1G</t>
   </si>
   <si>
@@ -223,6 +247,9 @@
     <t>Amphenol</t>
   </si>
   <si>
+    <t>RJHSE-5080-ND</t>
+  </si>
+  <si>
     <t>CPT-1255C-090</t>
   </si>
   <si>
@@ -247,6 +274,15 @@
     <t>MOTOR400</t>
   </si>
   <si>
+    <t>NXP Freescale</t>
+  </si>
+  <si>
+    <t>Not Recommended for New Design</t>
+  </si>
+  <si>
+    <t>Arrow Electronics</t>
+  </si>
+  <si>
     <t>282837-2</t>
   </si>
   <si>
@@ -286,6 +322,18 @@
     <t>78-SIHFR120-GE3</t>
   </si>
   <si>
+    <t>1625868-6</t>
+  </si>
+  <si>
+    <t>Resistor 0805 200R 0.1% 25ppm (reel)</t>
+  </si>
+  <si>
+    <t>R200</t>
+  </si>
+  <si>
+    <t>RP73PF2A200RBTDF</t>
+  </si>
+  <si>
     <t>PMR18EZPJ000</t>
   </si>
   <si>
@@ -301,22 +349,16 @@
     <t>755-PMR18EZPJ000</t>
   </si>
   <si>
-    <t>RES_0805_K_010.00</t>
-  </si>
-  <si>
-    <t>RES 10K 1/10W 1% 0805 SMD</t>
+    <t>1614886-1</t>
+  </si>
+  <si>
+    <t>CPF0805 10K 0.1% 25PPM 5K RL</t>
   </si>
   <si>
     <t>R500</t>
   </si>
   <si>
-    <t>Yageo</t>
-  </si>
-  <si>
-    <t>RC0805FR-0710KL</t>
-  </si>
-  <si>
-    <t>311-10.0KCRDKR-ND</t>
+    <t>45AJ2326</t>
   </si>
   <si>
     <t>MHS22204</t>
@@ -713,8 +755,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C34A04-F6AD-4E57-A196-04A3EFD1D9D4}">
-  <dimension ref="A1:L20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB59D7B-72E8-401E-8A95-53E85517C773}">
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -794,13 +836,13 @@
         <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K2" s="1">
         <v>0.1</v>
@@ -814,31 +856,31 @@
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3" s="1">
         <v>0.91</v>
@@ -852,31 +894,31 @@
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K4" s="1">
         <v>1.1499999999999999</v>
@@ -890,31 +932,31 @@
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K5" s="1">
         <v>0.37</v>
@@ -924,41 +966,39 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K6" s="1">
-        <v>0.52</v>
+        <v>0.55300000000000005</v>
       </c>
       <c r="L6" s="1">
-        <v>0.52</v>
+        <v>5.53</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -966,37 +1006,37 @@
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K7" s="1">
-        <v>1.43</v>
+        <v>0.52</v>
       </c>
       <c r="L7" s="1">
-        <v>1.43</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -1004,40 +1044,54 @@
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="F8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1.43</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1.43</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1052,157 +1106,165 @@
         <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E10" s="1">
-        <v>4</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0.69</v>
-      </c>
-      <c r="L10" s="1">
-        <v>2.76</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="H11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="L11" s="1">
+        <v>2.76</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="F13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="K14" s="1">
-        <v>0.31696000000000002</v>
+        <v>2.77</v>
       </c>
       <c r="L14" s="1">
-        <v>0.31696000000000002</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -1210,147 +1272,145 @@
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.31696000000000002</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.31696000000000002</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0.67</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0.67</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="K17" s="1">
-        <v>0.74</v>
+        <v>0.67</v>
       </c>
       <c r="L17" s="1">
-        <v>0.74</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="K18" s="1">
-        <v>0.1</v>
+        <v>0.5575</v>
       </c>
       <c r="L18" s="1">
-        <v>0.1</v>
+        <v>0.5575</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -1358,56 +1418,136 @@
         <v>12</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H19" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0.29799999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1.92</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="1">
         <v>10</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
